--- a/data/trans_orig/P1408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6442</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2780</v>
+        <v>2767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13128</v>
+        <v>12933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01303863209460955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005626847317602088</v>
+        <v>0.005601280490463183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02657226718260837</v>
+        <v>0.02617748279515849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4716</v>
+        <v>5171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002008846219633286</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01008827918561237</v>
+        <v>0.01106165388872861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3617</v>
+        <v>2866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14565</v>
+        <v>14059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007676156180938948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003761642130066377</v>
+        <v>0.002980246779622701</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01514766286129549</v>
+        <v>0.01462158583200676</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>487622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480936</v>
+        <v>481131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491284</v>
+        <v>491297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9869613679053905</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9734277328173917</v>
+        <v>0.9738225172048417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994373152682398</v>
+        <v>0.9943987195095368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>488</v>
@@ -836,7 +836,7 @@
         <v>466550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462773</v>
+        <v>462318</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.9979911537803667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9899117208143876</v>
+        <v>0.9889383461112706</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>954172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>946988</v>
+        <v>947494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>957936</v>
+        <v>958687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.992323843819061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9848523371387045</v>
+        <v>0.9853784141679932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962383578699336</v>
+        <v>0.9970197532203773</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7917</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3680</v>
+        <v>3416</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14697</v>
+        <v>15501</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01076384331715856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005002899672770579</v>
+        <v>0.004644375778839445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01998308173123672</v>
+        <v>0.0210751504027664</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>11585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6007</v>
+        <v>5634</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20855</v>
+        <v>20238</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01852068550739784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009603786119929271</v>
+        <v>0.009007928139826697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03334181297952856</v>
+        <v>0.03235521985101428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1003,19 +1003,19 @@
         <v>19501</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12221</v>
+        <v>11851</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29811</v>
+        <v>30466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01432880987481069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008979574284746357</v>
+        <v>0.00870742006018972</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0219042852430519</v>
+        <v>0.02238528426412809</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>727572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>720792</v>
+        <v>719988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>731809</v>
+        <v>732073</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9892361566828415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9800169182687629</v>
+        <v>0.9789248495972336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9949971003272294</v>
+        <v>0.9953556242211598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>580</v>
@@ -1053,19 +1053,19 @@
         <v>613909</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604639</v>
+        <v>605256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>619487</v>
+        <v>619860</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9814793144926022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666581870204713</v>
+        <v>0.9676447801489857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9903962138800707</v>
+        <v>0.9909920718601732</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1275</v>
@@ -1074,19 +1074,19 @@
         <v>1341481</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1331171</v>
+        <v>1330516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1348761</v>
+        <v>1349131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9856711901251893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.978095714756948</v>
+        <v>0.9776147157358718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9910204257152536</v>
+        <v>0.9912925799398102</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7001</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2787</v>
+        <v>3034</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12928</v>
+        <v>14054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01096261715078786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004363373431351046</v>
+        <v>0.0047500201282138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02024170744242954</v>
+        <v>0.02200481802769335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>10517</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5369</v>
+        <v>5255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18960</v>
+        <v>18678</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0152476322501971</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007783755031423378</v>
+        <v>0.007618970480142389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02748886531204478</v>
+        <v>0.02707965318293863</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>17518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10510</v>
+        <v>10362</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26867</v>
+        <v>27442</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01318750288363772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007911674415461494</v>
+        <v>0.007800398003280101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02022501873962103</v>
+        <v>0.02065777735951452</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>631667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>625740</v>
+        <v>624614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>635881</v>
+        <v>635634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9890373828492122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9797582925575705</v>
+        <v>0.9779951819723065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995636626568649</v>
+        <v>0.9952499798717862</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>648</v>
@@ -1270,19 +1270,19 @@
         <v>679227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>670784</v>
+        <v>671066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>684375</v>
+        <v>684489</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9847523677498029</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9725111346879551</v>
+        <v>0.9729203468170614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9922162449685766</v>
+        <v>0.9923810295198576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1254</v>
@@ -1291,19 +1291,19 @@
         <v>1310894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1301545</v>
+        <v>1300970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317902</v>
+        <v>1318050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9868124971163623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9797749812603793</v>
+        <v>0.9793422226404854</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9920883255845386</v>
+        <v>0.9921996019967197</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7813</v>
+        <v>7834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24457</v>
+        <v>25064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02767083561942993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01504971267742671</v>
+        <v>0.01508998820227553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04711070053692647</v>
+        <v>0.04827889128374888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1416,19 +1416,19 @@
         <v>15127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8956</v>
+        <v>8730</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24339</v>
+        <v>24076</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02933675313427599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01736813914618218</v>
+        <v>0.01693084948307518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04720057769570523</v>
+        <v>0.04669085926603651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>29492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20077</v>
+        <v>20537</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42949</v>
+        <v>43353</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02850097296658555</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01940218665784561</v>
+        <v>0.019847027837984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04150532551636311</v>
+        <v>0.04189544340417967</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>504782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494690</v>
+        <v>494083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>511334</v>
+        <v>511313</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.97232916438057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9528892994630735</v>
+        <v>0.9517211087162512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9849502873225733</v>
+        <v>0.9849100117977245</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>487</v>
@@ -1487,19 +1487,19 @@
         <v>500515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>491303</v>
+        <v>491566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>506686</v>
+        <v>506912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.970663246865724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9527994223042947</v>
+        <v>0.9533091407339634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9826318608538178</v>
+        <v>0.9830691505169248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>958</v>
@@ -1508,19 +1508,19 @@
         <v>1005297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>991840</v>
+        <v>991436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1014712</v>
+        <v>1014252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9714990270334144</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9584946744836369</v>
+        <v>0.9581045565958206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9805978133421546</v>
+        <v>0.9801529721620162</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>24679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17070</v>
+        <v>16739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36328</v>
+        <v>34840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06381702330719717</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04414278344193853</v>
+        <v>0.04328672041693307</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09394231319272565</v>
+        <v>0.09009460146142877</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1633,19 +1633,19 @@
         <v>9316</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4287</v>
+        <v>4232</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15730</v>
+        <v>16310</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02306129000404055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01061226894436353</v>
+        <v>0.01047677718195513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0389362843558325</v>
+        <v>0.04037273238992367</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1654,19 +1654,19 @@
         <v>33995</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23878</v>
+        <v>23822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45828</v>
+        <v>46795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04299391996185931</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03019852156564071</v>
+        <v>0.03012741108267959</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05795940230986013</v>
+        <v>0.05918180739160458</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>362031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>350382</v>
+        <v>351870</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>369640</v>
+        <v>369971</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9361829766928028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9060576868072743</v>
+        <v>0.9099053985385709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9558572165580612</v>
+        <v>0.956713279583067</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>387</v>
@@ -1704,19 +1704,19 @@
         <v>394670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>388256</v>
+        <v>387676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399699</v>
+        <v>399754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9769387099959594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9610637156441675</v>
+        <v>0.9596272676100766</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9893877310556366</v>
+        <v>0.9895232228180449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>753</v>
@@ -1725,19 +1725,19 @@
         <v>756701</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>744868</v>
+        <v>743901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>766818</v>
+        <v>766874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9570060800381407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9420405976901398</v>
+        <v>0.9408181926083954</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9698014784343594</v>
+        <v>0.9698725889173204</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>30500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20784</v>
+        <v>21620</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42429</v>
+        <v>41457</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1042454237211314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07103707656560709</v>
+        <v>0.07389423381516387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1450166568435488</v>
+        <v>0.1416923814981456</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1850,19 +1850,19 @@
         <v>19799</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12863</v>
+        <v>12912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29467</v>
+        <v>29295</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05773279154055765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0375090584966626</v>
+        <v>0.03765198116255289</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08592738043024088</v>
+        <v>0.08542589080369013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -1871,19 +1871,19 @@
         <v>50299</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38428</v>
+        <v>38990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64397</v>
+        <v>65128</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07914654677896697</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06046761286378464</v>
+        <v>0.06135172195045618</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1013306419538685</v>
+        <v>0.1024799007820339</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>262083</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250154</v>
+        <v>251126</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271799</v>
+        <v>270963</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8957545762788686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8549833431564507</v>
+        <v>0.8583076185018544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9289629234343929</v>
+        <v>0.9261057661848362</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>350</v>
@@ -1921,19 +1921,19 @@
         <v>323135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313467</v>
+        <v>313639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330071</v>
+        <v>330022</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9422672084594423</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9140726195697593</v>
+        <v>0.91457410919631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9624909415033375</v>
+        <v>0.9623480188374471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>621</v>
@@ -1942,19 +1942,19 @@
         <v>585218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>571120</v>
+        <v>570389</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>597089</v>
+        <v>596527</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9208534532210331</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8986693580461314</v>
+        <v>0.8975200992179662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9395323871362153</v>
+        <v>0.9386482780495436</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>45115</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34751</v>
+        <v>33918</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57133</v>
+        <v>57746</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2149528717538402</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1655732068331346</v>
+        <v>0.1616062243574865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.272214551909835</v>
+        <v>0.2751321099848956</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2067,19 +2067,19 @@
         <v>24252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15234</v>
+        <v>16196</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35352</v>
+        <v>35868</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07262934502541814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04562201985054656</v>
+        <v>0.04850538673884851</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1058730011890157</v>
+        <v>0.1074198361095205</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -2088,19 +2088,19 @@
         <v>69366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54687</v>
+        <v>54238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86857</v>
+        <v>85981</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1275609083932941</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1005652925450288</v>
+        <v>0.09974057539252819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1597255304660891</v>
+        <v>0.1581143175692659</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>164768</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>152750</v>
+        <v>152137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>175132</v>
+        <v>175965</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7850471282461597</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.727785448090165</v>
+        <v>0.7248678900151042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8344267931668654</v>
+        <v>0.8383937756425135</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -2138,19 +2138,19 @@
         <v>309656</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>298556</v>
+        <v>298040</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>318674</v>
+        <v>317712</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9273706549745818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8941269988109845</v>
+        <v>0.8925801638904797</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9543779801494536</v>
+        <v>0.9514946132611516</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>444</v>
@@ -2159,19 +2159,19 @@
         <v>474425</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>456934</v>
+        <v>457810</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>489104</v>
+        <v>489553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8724390916067059</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8402744695339109</v>
+        <v>0.8418856824307339</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8994347074549711</v>
+        <v>0.9002594246074718</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>136019</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04151307503473621</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -2284,19 +2284,19 @@
         <v>91534</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02708762067688475</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>226</v>
@@ -2305,19 +2305,19 @@
         <v>227554</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03418910325589091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3140524</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3118892</v>
+        <v>3116855</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3160913</v>
+        <v>3160434</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9584869249652638</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9518849025316413</v>
+        <v>0.9512632967474519</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9647098248739331</v>
+        <v>0.9645634445557084</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3209</v>
@@ -2355,19 +2355,19 @@
         <v>3287663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3266325</v>
+        <v>3266818</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3304540</v>
+        <v>3305265</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9729123793231153</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9665978825856328</v>
+        <v>0.9667439102044547</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9779067460738338</v>
+        <v>0.9781213286809275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6285</v>
@@ -2376,19 +2376,19 @@
         <v>6428187</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6397484</v>
+        <v>6398298</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6456088</v>
+        <v>6454835</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9658108967441091</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9611977940801302</v>
+        <v>0.9613201413671714</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9700029346587679</v>
+        <v>0.9698146900745751</v>
       </c>
     </row>
     <row r="27">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5619</v>
+        <v>7368</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001460435251598392</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008177748203826454</v>
+        <v>0.01072349089212057</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5737</v>
+        <v>5295</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001744160914762544</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009400220176633571</v>
+        <v>0.008676453719416799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7183</v>
+        <v>7245</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001593896637008858</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005536345254931193</v>
+        <v>0.005584808792159539</v>
       </c>
     </row>
     <row r="8">
@@ -2963,7 +2963,7 @@
         <v>686084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681468</v>
+        <v>679719</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -2972,7 +2972,7 @@
         <v>0.9985395647484016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9918222517961733</v>
+        <v>0.9892765091078795</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2984,7 +2984,7 @@
         <v>609191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604518</v>
+        <v>604960</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>610255</v>
@@ -2993,7 +2993,7 @@
         <v>0.9982558390852374</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9905997798233658</v>
+        <v>0.9913235462805832</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>1295274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1290159</v>
+        <v>1290097</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1297342</v>
@@ -3014,7 +3014,7 @@
         <v>0.9984061033629912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.994463654745069</v>
+        <v>0.9944151912078403</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3109,19 +3109,19 @@
         <v>4877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1849</v>
+        <v>1881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10769</v>
+        <v>10690</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007152781100409598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002711441959135904</v>
+        <v>0.002759214247399953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01579419928421751</v>
+        <v>0.01567813275161907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3130,19 +3130,19 @@
         <v>4749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1844</v>
+        <v>1879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10359</v>
+        <v>9736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006693365936166602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002599006995312182</v>
+        <v>0.002647839452251799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01459907013462168</v>
+        <v>0.01372124601595639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3151,19 +3151,19 @@
         <v>9627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4301</v>
+        <v>4715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17197</v>
+        <v>16621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006918498704974433</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003091120376636692</v>
+        <v>0.003388384178989457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01235895557892582</v>
+        <v>0.01194546754742967</v>
       </c>
     </row>
     <row r="11">
@@ -3180,19 +3180,19 @@
         <v>676986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671094</v>
+        <v>671173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680014</v>
+        <v>679982</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9928472188995904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9842058007157826</v>
+        <v>0.9843218672483811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972885580408641</v>
+        <v>0.9972407857526001</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>661</v>
@@ -3201,19 +3201,19 @@
         <v>704825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>699215</v>
+        <v>699838</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707730</v>
+        <v>707695</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9933066340638333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9854009298653783</v>
+        <v>0.9862787539840437</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9974009930046878</v>
+        <v>0.9973521605477482</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1307</v>
@@ -3222,19 +3222,19 @@
         <v>1381810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1374240</v>
+        <v>1374816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1387136</v>
+        <v>1386722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9930815012950256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9876410444210743</v>
+        <v>0.9880545324525704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9969088796233633</v>
+        <v>0.9966116158210105</v>
       </c>
     </row>
     <row r="12">
@@ -3326,19 +3326,19 @@
         <v>7376</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2406</v>
+        <v>2907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18500</v>
+        <v>19045</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01200022938112644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003915242679882166</v>
+        <v>0.004729440553529213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03009958214321017</v>
+        <v>0.03098601777728734</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3347,19 +3347,19 @@
         <v>4939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12454</v>
+        <v>11659</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00804056026547363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001751906957079561</v>
+        <v>0.001756394153496349</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02027511494913463</v>
+        <v>0.01898024344591764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3368,19 +3368,19 @@
         <v>12315</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5150</v>
+        <v>5838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22239</v>
+        <v>24200</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01002096326070539</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004191091698157424</v>
+        <v>0.004750713795854078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01809689575859281</v>
+        <v>0.01969283513281903</v>
       </c>
     </row>
     <row r="14">
@@ -3397,19 +3397,19 @@
         <v>607241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>596117</v>
+        <v>595572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612211</v>
+        <v>611710</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9879997706188736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9699004178567902</v>
+        <v>0.9690139822227127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960847573201183</v>
+        <v>0.9952705594464708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>534</v>
@@ -3418,19 +3418,19 @@
         <v>609325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601810</v>
+        <v>602605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>613188</v>
+        <v>613185</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9919594397345264</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9797248850508659</v>
+        <v>0.9810197565540827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9982480930429205</v>
+        <v>0.9982436058465036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1077</v>
@@ -3439,19 +3439,19 @@
         <v>1216565</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1206641</v>
+        <v>1204680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1223730</v>
+        <v>1223042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9899790367392947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9819031042414084</v>
+        <v>0.9803071648671813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9958089083018428</v>
+        <v>0.9952492862041459</v>
       </c>
     </row>
     <row r="15">
@@ -3543,19 +3543,19 @@
         <v>15226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7702</v>
+        <v>8285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26846</v>
+        <v>24641</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0354572070575837</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01793472577648407</v>
+        <v>0.01929278585883528</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06251582843889886</v>
+        <v>0.05737993019434483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3564,19 +3564,19 @@
         <v>9194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4163</v>
+        <v>4122</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16622</v>
+        <v>15766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02053120692547062</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009295995137250986</v>
+        <v>0.009205946963795352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03712035206192269</v>
+        <v>0.03520779696927177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -3585,19 +3585,19 @@
         <v>24420</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15982</v>
+        <v>15751</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38272</v>
+        <v>36136</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0278379176355049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01821905371584295</v>
+        <v>0.01795590245704774</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04362776006114315</v>
+        <v>0.04119305036311451</v>
       </c>
     </row>
     <row r="17">
@@ -3614,19 +3614,19 @@
         <v>414203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402583</v>
+        <v>404788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421727</v>
+        <v>421144</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9645427929424163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9374841715611015</v>
+        <v>0.9426200698056552</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.982065274223516</v>
+        <v>0.9807072141411648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>397</v>
@@ -3635,19 +3635,19 @@
         <v>438606</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>431178</v>
+        <v>432034</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>443637</v>
+        <v>443678</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9794687930745294</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9628796479380775</v>
+        <v>0.9647922030307301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9907040048627492</v>
+        <v>0.9907940530362048</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>777</v>
@@ -3656,19 +3656,19 @@
         <v>852809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>838957</v>
+        <v>841093</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>861247</v>
+        <v>861478</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9721620823644951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9563722399388564</v>
+        <v>0.9588069496368857</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.981780946284157</v>
+        <v>0.9820440975429523</v>
       </c>
     </row>
     <row r="18">
@@ -3760,19 +3760,19 @@
         <v>17541</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10262</v>
+        <v>10381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27935</v>
+        <v>29081</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05662300710361834</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03312634647226634</v>
+        <v>0.03350994575562095</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09017579580531011</v>
+        <v>0.09387311839645197</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -3781,19 +3781,19 @@
         <v>5983</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2852</v>
+        <v>2051</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13245</v>
+        <v>12175</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0169025754743192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008056987011099002</v>
+        <v>0.005793297805239987</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0374161199946497</v>
+        <v>0.03439200051788941</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -3802,19 +3802,19 @@
         <v>23524</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14816</v>
+        <v>14318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35384</v>
+        <v>34873</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03544004333944097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02232011496037375</v>
+        <v>0.02157038749183521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05330717773545946</v>
+        <v>0.05253757309727859</v>
       </c>
     </row>
     <row r="20">
@@ -3831,19 +3831,19 @@
         <v>292245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281851</v>
+        <v>280705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299524</v>
+        <v>299405</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9433769928963817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9098242041946895</v>
+        <v>0.9061268816035482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9668736535277336</v>
+        <v>0.9664900542443793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -3852,19 +3852,19 @@
         <v>348013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340751</v>
+        <v>341821</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>351144</v>
+        <v>351945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9830974245256808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9625838800053502</v>
+        <v>0.9656079994821105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9919430129889009</v>
+        <v>0.9942067021947599</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>604</v>
@@ -3873,19 +3873,19 @@
         <v>640258</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>628398</v>
+        <v>628909</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>648966</v>
+        <v>649464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.964559956660559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9466928222645405</v>
+        <v>0.9474624269027214</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9776798850396262</v>
+        <v>0.978429612508165</v>
       </c>
     </row>
     <row r="21">
@@ -3977,19 +3977,19 @@
         <v>27630</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19297</v>
+        <v>19383</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39155</v>
+        <v>40072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1105852579066864</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07723414524323301</v>
+        <v>0.07757952390953186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1567153333732824</v>
+        <v>0.1603838082473487</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -3998,19 +3998,19 @@
         <v>16538</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9954</v>
+        <v>9968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25783</v>
+        <v>25410</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04264552349818081</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02566864923089854</v>
+        <v>0.02570510623461689</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06648680988015017</v>
+        <v>0.06552335990080103</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -4019,19 +4019,19 @@
         <v>44168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31003</v>
+        <v>32124</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58918</v>
+        <v>58002</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06926652031724261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04862062421219612</v>
+        <v>0.05037918872174648</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0923995342215316</v>
+        <v>0.09096270810801743</v>
       </c>
     </row>
     <row r="23">
@@ -4048,19 +4048,19 @@
         <v>222221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210696</v>
+        <v>209779</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230554</v>
+        <v>230468</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8894147420933136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8432846666267176</v>
+        <v>0.8396161917526513</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9227658547567671</v>
+        <v>0.9224204760904681</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>334</v>
@@ -4069,19 +4069,19 @@
         <v>371258</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>362013</v>
+        <v>362386</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>377842</v>
+        <v>377828</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9573544765018192</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9335131901198485</v>
+        <v>0.934476640099199</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9743313507691014</v>
+        <v>0.9742948937653831</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>530</v>
@@ -4090,19 +4090,19 @@
         <v>593479</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>578729</v>
+        <v>579645</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>606644</v>
+        <v>605523</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9307334796827574</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9076004657784684</v>
+        <v>0.9090372918919825</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9513793757878038</v>
+        <v>0.9496208112782535</v>
       </c>
     </row>
     <row r="24">
@@ -4194,19 +4194,19 @@
         <v>73653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55455</v>
+        <v>58010</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91616</v>
+        <v>93657</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02149348111325351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01618282265822354</v>
+        <v>0.01692857301287009</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02673541966862198</v>
+        <v>0.02733105396308802</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -4215,19 +4215,19 @@
         <v>42468</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31353</v>
+        <v>30713</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57800</v>
+        <v>57336</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01194961963431402</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008822198592977405</v>
+        <v>0.008641928969829404</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01626365166166996</v>
+        <v>0.01613329100467435</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -4236,19 +4236,19 @@
         <v>116121</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96380</v>
+        <v>95661</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140958</v>
+        <v>141474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01663464096945996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01380664161697903</v>
+        <v>0.01370362052574704</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0201925782427997</v>
+        <v>0.0202664452724272</v>
       </c>
     </row>
     <row r="26">
@@ -4265,19 +4265,19 @@
         <v>3353126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3335163</v>
+        <v>3333122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3371324</v>
+        <v>3368769</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9785065188867464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9732645803313779</v>
+        <v>0.9726689460369119</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9838171773417762</v>
+        <v>0.9830714269871298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3255</v>
@@ -4286,19 +4286,19 @@
         <v>3511448</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3496116</v>
+        <v>3496580</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3522563</v>
+        <v>3523203</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9880503803656859</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9837363483383301</v>
+        <v>0.9838667089953257</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9911778014070226</v>
+        <v>0.9913580710301706</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6398</v>
@@ -4307,19 +4307,19 @@
         <v>6864573</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6839736</v>
+        <v>6839220</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6884314</v>
+        <v>6885033</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.98336535903054</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9798074217571998</v>
+        <v>0.9797335547275731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9861933583830205</v>
+        <v>0.9862963794742534</v>
       </c>
     </row>
     <row r="27">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5937</v>
+        <v>7699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004658691758405199</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01415417101905591</v>
+        <v>0.01835502676545623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7126</v>
+        <v>6529</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002397087417828541</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008741560388483796</v>
+        <v>0.008009092413978389</v>
       </c>
     </row>
     <row r="5">
@@ -4717,7 +4717,7 @@
         <v>417509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413526</v>
+        <v>411764</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4726,7 +4726,7 @@
         <v>0.9953413082415948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.985845828980944</v>
+        <v>0.9816449732345418</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4751,7 +4751,7 @@
         <v>813264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>808092</v>
+        <v>808689</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4760,7 +4760,7 @@
         <v>0.9976029125821715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9912584396115155</v>
+        <v>0.9919909075860212</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6996</v>
+        <v>6995</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003371902324050331</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0118472835754832</v>
+        <v>0.01184596308935508</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4876,19 +4876,19 @@
         <v>2895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7805</v>
+        <v>8665</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005137075651564443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001649865974531978</v>
+        <v>0.001646231419796572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01385041468000355</v>
+        <v>0.01537566058651568</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4897,19 +4897,19 @@
         <v>4886</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1935</v>
+        <v>1916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11318</v>
+        <v>9931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004233876195104693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001677123633358847</v>
+        <v>0.001660578771273391</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009807314269327056</v>
+        <v>0.008605337085764043</v>
       </c>
     </row>
     <row r="8">
@@ -4926,7 +4926,7 @@
         <v>588505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583500</v>
+        <v>583501</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4935,7 +4935,7 @@
         <v>0.9966280976759496</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9881527164245169</v>
+        <v>0.988154036910645</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4947,19 +4947,19 @@
         <v>560649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555739</v>
+        <v>554879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562614</v>
+        <v>562616</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9948629243484356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9861495853199966</v>
+        <v>0.9846243394134844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998350134025468</v>
+        <v>0.9983537685802034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1141</v>
@@ -4968,19 +4968,19 @@
         <v>1149154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1142722</v>
+        <v>1144109</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152105</v>
+        <v>1152124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9957661238048953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9901926857306741</v>
+        <v>0.9913946629142361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9983228763666412</v>
+        <v>0.9983394212287267</v>
       </c>
     </row>
     <row r="9">
@@ -5072,19 +5072,19 @@
         <v>3203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8944</v>
+        <v>9148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004787762492065881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001365449990007565</v>
+        <v>0.001376231057119043</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0133673306339998</v>
+        <v>0.01367253485717524</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -5093,19 +5093,19 @@
         <v>3799</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9378</v>
+        <v>10389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005743934302655055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001498335279706048</v>
+        <v>0.001486065195557433</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01417946534280174</v>
+        <v>0.01570752716306405</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -5114,19 +5114,19 @@
         <v>7002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2795</v>
+        <v>3119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14034</v>
+        <v>14152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005263077795303866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0021006001268196</v>
+        <v>0.002344436260734598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01054776476388432</v>
+        <v>0.01063686100463069</v>
       </c>
     </row>
     <row r="11">
@@ -5143,19 +5143,19 @@
         <v>665894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>660153</v>
+        <v>659949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668183</v>
+        <v>668176</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9952122375079341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9866326693659989</v>
+        <v>0.9863274651428244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986345500099925</v>
+        <v>0.998623768942881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>661</v>
@@ -5164,19 +5164,19 @@
         <v>657587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652008</v>
+        <v>650997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660395</v>
+        <v>660403</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9942560656973449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9858205346571984</v>
+        <v>0.9842924728369363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.998501664720294</v>
+        <v>0.9985139348044426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1296</v>
@@ -5185,19 +5185,19 @@
         <v>1323481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1316449</v>
+        <v>1316331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1327688</v>
+        <v>1327364</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9947369222046961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9894522352361156</v>
+        <v>0.9893631389953693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978993998731803</v>
+        <v>0.9976555637392652</v>
       </c>
     </row>
     <row r="12">
@@ -5289,19 +5289,19 @@
         <v>7344</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3162</v>
+        <v>3167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14437</v>
+        <v>14704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0113672651408366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004893899236029728</v>
+        <v>0.004902074984864426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02234635585252873</v>
+        <v>0.02276003064762923</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5310,19 +5310,19 @@
         <v>4025</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>997</v>
+        <v>1023</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9025</v>
+        <v>10023</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006200880120878144</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001536791956312808</v>
+        <v>0.001575992938605658</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01390465956086178</v>
+        <v>0.01544178345038554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5331,19 +5331,19 @@
         <v>11369</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6120</v>
+        <v>6177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19958</v>
+        <v>20263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00877803185417521</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004725714547264489</v>
+        <v>0.00476905100726159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01541002896664148</v>
+        <v>0.01564537875528021</v>
       </c>
     </row>
     <row r="14">
@@ -5360,19 +5360,19 @@
         <v>638704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>631611</v>
+        <v>631344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>642886</v>
+        <v>642881</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9886327348591634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9776536441474685</v>
+        <v>0.9772399693523708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9951061007639703</v>
+        <v>0.9950979250151355</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -5381,19 +5381,19 @@
         <v>645052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640052</v>
+        <v>639054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648080</v>
+        <v>648054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9937991198791218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9860953404391382</v>
+        <v>0.9845582165496143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984632080436873</v>
+        <v>0.9984240070613943</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1173</v>
@@ -5402,19 +5402,19 @@
         <v>1283756</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1275167</v>
+        <v>1274862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1289005</v>
+        <v>1288948</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9912219681458247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9845899710333585</v>
+        <v>0.98435462124472</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9952742854527356</v>
+        <v>0.9952309489927385</v>
       </c>
     </row>
     <row r="15">
@@ -5506,19 +5506,19 @@
         <v>19993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11558</v>
+        <v>12216</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30665</v>
+        <v>31180</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04183396576129968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02418509354923224</v>
+        <v>0.0255605283955129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06416389086266978</v>
+        <v>0.06524196799708164</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5527,19 +5527,19 @@
         <v>6691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2282</v>
+        <v>3248</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14598</v>
+        <v>14799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01346766050232523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004592156562688358</v>
+        <v>0.006537672164485311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02938104470087674</v>
+        <v>0.02978556337738084</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -5548,19 +5548,19 @@
         <v>26685</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17155</v>
+        <v>16662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39286</v>
+        <v>39914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02737536135327164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01759948974010481</v>
+        <v>0.01709364292401601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0403029480338418</v>
+        <v>0.04094762695317733</v>
       </c>
     </row>
     <row r="17">
@@ -5577,19 +5577,19 @@
         <v>457925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>447253</v>
+        <v>446738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466360</v>
+        <v>465702</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9581660342387003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9358361091373302</v>
+        <v>0.9347580320029183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9758149064507677</v>
+        <v>0.9744394716044871</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>427</v>
@@ -5598,19 +5598,19 @@
         <v>490158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>482251</v>
+        <v>482050</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>494567</v>
+        <v>493601</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9865323394976747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9706189552991235</v>
+        <v>0.9702144366226194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9954078434373117</v>
+        <v>0.9934623278355147</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>834</v>
@@ -5619,19 +5619,19 @@
         <v>948082</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>935481</v>
+        <v>934853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>957612</v>
+        <v>958105</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9726246386467283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9596970519661582</v>
+        <v>0.9590523730468229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9824005102598947</v>
+        <v>0.9829063570759841</v>
       </c>
     </row>
     <row r="18">
@@ -5723,19 +5723,19 @@
         <v>13658</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7656</v>
+        <v>7738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21656</v>
+        <v>22575</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04085151730709612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02289975977769123</v>
+        <v>0.02314476755754582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06477558334141743</v>
+        <v>0.0675223739734104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5744,19 +5744,19 @@
         <v>12935</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6899</v>
+        <v>6852</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21716</v>
+        <v>21327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03424194821975903</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01826201776650579</v>
+        <v>0.01813907730903042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05748697528016946</v>
+        <v>0.05645690564931405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5765,19 +5765,19 @@
         <v>26593</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17631</v>
+        <v>17662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39234</v>
+        <v>37637</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03734516693524584</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02475878431035882</v>
+        <v>0.02480264509864543</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05509634981637512</v>
+        <v>0.05285353718568992</v>
       </c>
     </row>
     <row r="20">
@@ -5794,19 +5794,19 @@
         <v>320672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312674</v>
+        <v>311755</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326674</v>
+        <v>326592</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9591484826929039</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9352244166585826</v>
+        <v>0.9324776260265902</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9771002402223088</v>
+        <v>0.9768552324424542</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>342</v>
@@ -5815,19 +5815,19 @@
         <v>364827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>356046</v>
+        <v>356435</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>370863</v>
+        <v>370910</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.965758051780241</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9425130247198305</v>
+        <v>0.9435430943506858</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9817379822334941</v>
+        <v>0.9818609226909696</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>653</v>
@@ -5836,19 +5836,19 @@
         <v>685499</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>672858</v>
+        <v>674455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>694461</v>
+        <v>694430</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9626548330647542</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9449036501836249</v>
+        <v>0.9471464628143101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9752412156896412</v>
+        <v>0.9751973549013546</v>
       </c>
     </row>
     <row r="21">
@@ -5940,19 +5940,19 @@
         <v>18337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11481</v>
+        <v>12150</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27494</v>
+        <v>27275</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07134904188298634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04467204707317766</v>
+        <v>0.04727724896398649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1069804040265462</v>
+        <v>0.1061275329202689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -5961,19 +5961,19 @@
         <v>15174</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8700</v>
+        <v>8211</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26729</v>
+        <v>26684</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03791858226115676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02174130998756098</v>
+        <v>0.0205177840674444</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06679328270852201</v>
+        <v>0.06668103238658701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -5982,19 +5982,19 @@
         <v>33510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23419</v>
+        <v>23375</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46831</v>
+        <v>46256</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05099221695525233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03563659877088378</v>
+        <v>0.03556956734083653</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0712614034567926</v>
+        <v>0.07038688080823344</v>
       </c>
     </row>
     <row r="23">
@@ -6011,19 +6011,19 @@
         <v>238661</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>229504</v>
+        <v>229723</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245517</v>
+        <v>244848</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9286509581170137</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8930195959734537</v>
+        <v>0.8938724670797311</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9553279529268223</v>
+        <v>0.9527227510360137</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -6032,19 +6032,19 @@
         <v>384995</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>373440</v>
+        <v>373485</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>391469</v>
+        <v>391958</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9620814177388433</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9332067172914781</v>
+        <v>0.9333189676134128</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.978258690012439</v>
+        <v>0.9794822159325535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>570</v>
@@ -6053,19 +6053,19 @@
         <v>623657</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>610336</v>
+        <v>610911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>633748</v>
+        <v>633792</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9490077830447476</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.928738596543208</v>
+        <v>0.9296131191917666</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9643634012291163</v>
+        <v>0.9644304326591636</v>
       </c>
     </row>
     <row r="24">
@@ -6157,19 +6157,19 @@
         <v>66480</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52818</v>
+        <v>51889</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85767</v>
+        <v>84606</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01958553796096673</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01556045674316667</v>
+        <v>0.01528687877289613</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02526755917797871</v>
+        <v>0.02492546581309908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -6178,19 +6178,19 @@
         <v>45519</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32289</v>
+        <v>32134</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60085</v>
+        <v>61488</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01284208688678322</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009109566476428365</v>
+        <v>0.009065888822046553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01695149075146733</v>
+        <v>0.01734723536674776</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -6199,19 +6199,19 @@
         <v>111999</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94572</v>
+        <v>90919</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>135960</v>
+        <v>134218</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01614083174964978</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01362926335875835</v>
+        <v>0.01310288322899035</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01959394714112176</v>
+        <v>0.01934290980531278</v>
       </c>
     </row>
     <row r="26">
@@ -6228,19 +6228,19 @@
         <v>3327870</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3308583</v>
+        <v>3309744</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3341532</v>
+        <v>3342461</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9804144620390333</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9747324408220213</v>
+        <v>0.9750745341869009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9844395432568332</v>
+        <v>0.9847131212271039</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3297</v>
@@ -6249,19 +6249,19 @@
         <v>3499023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3484457</v>
+        <v>3483054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3512253</v>
+        <v>3512408</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9871579131132168</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9830485092485326</v>
+        <v>0.9826527646332524</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9908904335235716</v>
+        <v>0.9909341111779536</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6462</v>
@@ -6270,19 +6270,19 @@
         <v>6826893</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6802932</v>
+        <v>6804674</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6844320</v>
+        <v>6847973</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9838591682503502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9804060528588781</v>
+        <v>0.9806570901946872</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9863707366412416</v>
+        <v>0.9868971167710096</v>
       </c>
     </row>
     <row r="27">
@@ -6630,19 +6630,19 @@
         <v>8280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2243</v>
+        <v>2388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25183</v>
+        <v>22892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02284029493229935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006188094794827949</v>
+        <v>0.006587046359429679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06946938289401008</v>
+        <v>0.06314724451378231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6651,19 +6651,19 @@
         <v>8280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2229</v>
+        <v>2265</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26355</v>
+        <v>24541</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01074883328071029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002893150664207327</v>
+        <v>0.002939853915691587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03421348737904237</v>
+        <v>0.03185938243664188</v>
       </c>
     </row>
     <row r="5">
@@ -6693,19 +6693,19 @@
         <v>354232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337329</v>
+        <v>339620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360269</v>
+        <v>360124</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9771597050677008</v>
+        <v>0.9771597050677006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9305306171059899</v>
+        <v>0.9368527554862177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.993811905205172</v>
+        <v>0.9934129536405703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>376</v>
@@ -6714,19 +6714,19 @@
         <v>762025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>743950</v>
+        <v>745764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>768076</v>
+        <v>768040</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9892511667192898</v>
+        <v>0.9892511667192897</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9657865126209576</v>
+        <v>0.9681406175633593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971068493357927</v>
+        <v>0.9970601460843084</v>
       </c>
     </row>
     <row r="6">
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8399</v>
+        <v>8332</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004989288401328122</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01761110645066661</v>
+        <v>0.01747173309903989</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6839,19 +6839,19 @@
         <v>5532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1966</v>
+        <v>1952</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11523</v>
+        <v>12463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01104093973173429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00392449799541569</v>
+        <v>0.003895855358891792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02299665873872992</v>
+        <v>0.02487202868098392</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -6860,19 +6860,19 @@
         <v>7912</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3360</v>
+        <v>3327</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16104</v>
+        <v>15754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00808996607568087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003435727829240242</v>
+        <v>0.003401556458027942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01646628395140759</v>
+        <v>0.0161087021319897</v>
       </c>
     </row>
     <row r="8">
@@ -6889,7 +6889,7 @@
         <v>474511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468491</v>
+        <v>468558</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6898,7 +6898,7 @@
         <v>0.9950107115986718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9823888935493336</v>
+        <v>0.9825282669009601</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6910,19 +6910,19 @@
         <v>495551</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489560</v>
+        <v>488620</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499117</v>
+        <v>499131</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9889590602682655</v>
+        <v>0.9889590602682657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9770033412612701</v>
+        <v>0.9751279713190149</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9960755020045843</v>
+        <v>0.9961041446411081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>755</v>
@@ -6931,19 +6931,19 @@
         <v>970061</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>961869</v>
+        <v>962219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>974613</v>
+        <v>974646</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.991910033924319</v>
+        <v>0.9919100339243191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9835337160485932</v>
+        <v>0.9838912978680103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9965642721707598</v>
+        <v>0.9965984435419721</v>
       </c>
     </row>
     <row r="9">
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9892</v>
+        <v>8725</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004087572515188038</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01593346635199326</v>
+        <v>0.01405314379895626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -7056,19 +7056,19 @@
         <v>3431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1130</v>
+        <v>1281</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7925</v>
+        <v>8160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005521109467600672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001818658372232163</v>
+        <v>0.002060491325445174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01275138144569699</v>
+        <v>0.01312917809637441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -7077,19 +7077,19 @@
         <v>5969</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2285</v>
+        <v>2526</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12373</v>
+        <v>12482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004804716789705388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001839356171468746</v>
+        <v>0.002033181697862593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009959302215367786</v>
+        <v>0.01004738530654084</v>
       </c>
     </row>
     <row r="11">
@@ -7106,16 +7106,16 @@
         <v>618299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610945</v>
+        <v>612112</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>620837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.995912427484812</v>
+        <v>0.9959124274848121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9840665336480069</v>
+        <v>0.9859468562010438</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -7127,19 +7127,19 @@
         <v>618057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613563</v>
+        <v>613328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620358</v>
+        <v>620207</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9944788905323992</v>
+        <v>0.9944788905323996</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9872486185543036</v>
+        <v>0.9868708219036256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9981813416277678</v>
+        <v>0.9979395086745548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1384</v>
@@ -7148,19 +7148,19 @@
         <v>1236356</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1229952</v>
+        <v>1229843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1240040</v>
+        <v>1239799</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9951952832102946</v>
+        <v>0.9951952832102947</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9900406977846323</v>
+        <v>0.9899526146934586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9981606438285312</v>
+        <v>0.9979668183021373</v>
       </c>
     </row>
     <row r="12">
@@ -7252,19 +7252,19 @@
         <v>13509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6897</v>
+        <v>7036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24299</v>
+        <v>26039</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01931235358203924</v>
+        <v>0.01931235358203923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009859960512530139</v>
+        <v>0.01005905346312851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03473672806799324</v>
+        <v>0.0372240805810666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7273,19 +7273,19 @@
         <v>12174</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7897</v>
+        <v>7705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19350</v>
+        <v>18733</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01654614776817889</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01073321479423402</v>
+        <v>0.01047157415682987</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02629837670056636</v>
+        <v>0.02546040445222952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -7294,19 +7294,19 @@
         <v>25684</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17472</v>
+        <v>16791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37085</v>
+        <v>36996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01789430244898626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01217267387451615</v>
+        <v>0.01169822305666292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02583788860462282</v>
+        <v>0.02577599412658601</v>
       </c>
     </row>
     <row r="14">
@@ -7323,19 +7323,19 @@
         <v>686010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>675220</v>
+        <v>673480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>692622</v>
+        <v>692483</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9806876464179608</v>
+        <v>0.9806876464179607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9652632719320066</v>
+        <v>0.9627759194189334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901400394874698</v>
+        <v>0.9899409465368714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1120</v>
@@ -7344,19 +7344,19 @@
         <v>723613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>716437</v>
+        <v>717054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727890</v>
+        <v>728082</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9834538522318211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9737016232994342</v>
+        <v>0.9745395955477703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9892667852057662</v>
+        <v>0.9895284258431701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1772</v>
@@ -7365,19 +7365,19 @@
         <v>1409622</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1398221</v>
+        <v>1398310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1417834</v>
+        <v>1418515</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9821056975510136</v>
+        <v>0.9821056975510137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9741621113953772</v>
+        <v>0.9742240058734138</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987827326125484</v>
+        <v>0.9883017769433369</v>
       </c>
     </row>
     <row r="15">
@@ -7469,19 +7469,19 @@
         <v>20351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12903</v>
+        <v>12951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30164</v>
+        <v>29206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03345305158992976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02120880395856481</v>
+        <v>0.02128770697692314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04958334439387792</v>
+        <v>0.04800731918625491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -7490,19 +7490,19 @@
         <v>17918</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12263</v>
+        <v>12516</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26144</v>
+        <v>25759</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02959919494230568</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02025746942433096</v>
+        <v>0.02067583799951773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0431864795317322</v>
+        <v>0.04255085333756407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -7511,19 +7511,19 @@
         <v>38270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28684</v>
+        <v>28601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50809</v>
+        <v>49420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03153087125110503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02363312135679088</v>
+        <v>0.02356441407033414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04186215101892423</v>
+        <v>0.04071765177071045</v>
       </c>
     </row>
     <row r="17">
@@ -7540,19 +7540,19 @@
         <v>588008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>578195</v>
+        <v>579153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>595456</v>
+        <v>595408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9665469484100703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.950416655606122</v>
+        <v>0.9519926808137449</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9787911960414353</v>
+        <v>0.9787122930230769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>969</v>
@@ -7561,19 +7561,19 @@
         <v>587450</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>579224</v>
+        <v>579609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>593105</v>
+        <v>592852</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9704008050576942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9568135204682677</v>
+        <v>0.9574491466624361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9797425305756691</v>
+        <v>0.9793241620004822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1608</v>
@@ -7582,19 +7582,19 @@
         <v>1175457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1162918</v>
+        <v>1164307</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1185043</v>
+        <v>1185126</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9684691287488951</v>
+        <v>0.9684691287488949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9581378489810756</v>
+        <v>0.9592823482292895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9763668786432089</v>
+        <v>0.9764355859296656</v>
       </c>
     </row>
     <row r="18">
@@ -7686,19 +7686,19 @@
         <v>25621</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17768</v>
+        <v>18160</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34297</v>
+        <v>34435</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06307401705579416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04374016233928937</v>
+        <v>0.04470566546074766</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08443048702015871</v>
+        <v>0.08477035815450501</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -7707,19 +7707,19 @@
         <v>18513</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12694</v>
+        <v>12819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24515</v>
+        <v>25479</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04226613663321384</v>
+        <v>0.04226613663321383</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02897992940950399</v>
+        <v>0.02926566921415797</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0559688685481935</v>
+        <v>0.05816855212780424</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -7728,19 +7728,19 @@
         <v>44135</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35764</v>
+        <v>34903</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56276</v>
+        <v>54871</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0522780856306447</v>
+        <v>0.05227808563064471</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04236245209812037</v>
+        <v>0.04134338606244468</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06665988123655633</v>
+        <v>0.06499537673936208</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>380590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>371914</v>
+        <v>371776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>388443</v>
+        <v>388051</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9369259829442059</v>
+        <v>0.9369259829442058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.915569512979841</v>
+        <v>0.9152296418454948</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9562598376607105</v>
+        <v>0.9552943345392523</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>791</v>
@@ -7778,19 +7778,19 @@
         <v>419507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>413505</v>
+        <v>412541</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>425326</v>
+        <v>425201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9577338633667862</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9440311314518067</v>
+        <v>0.9418314478721959</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9710200705904962</v>
+        <v>0.970734330785842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1323</v>
@@ -7799,19 +7799,19 @@
         <v>800096</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>787955</v>
+        <v>789360</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>808467</v>
+        <v>809328</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9477219143693554</v>
+        <v>0.9477219143693555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.933340118763444</v>
+        <v>0.9350046232606379</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9576375479018795</v>
+        <v>0.9586566139375554</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>25596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19176</v>
+        <v>17752</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34716</v>
+        <v>34243</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08251356590528656</v>
+        <v>0.08251356590528658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06181929685766484</v>
+        <v>0.05722662040114841</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1119153074176359</v>
+        <v>0.1103900627029441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -7924,19 +7924,19 @@
         <v>29970</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23038</v>
+        <v>22616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39046</v>
+        <v>39389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06464077188110587</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04968976321306458</v>
+        <v>0.04877829280506441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08421723362557369</v>
+        <v>0.08495559836582778</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -7945,19 +7945,19 @@
         <v>55566</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45670</v>
+        <v>44930</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67317</v>
+        <v>66965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07180520766185731</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05901708309725549</v>
+        <v>0.05806152212288108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08699130742916233</v>
+        <v>0.08653601896684122</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>284602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>275482</v>
+        <v>275955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>291022</v>
+        <v>292446</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9174864340947132</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8880846925823639</v>
+        <v>0.8896099372970557</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9381807031423351</v>
+        <v>0.9427733795988514</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>819</v>
@@ -7995,19 +7995,19 @@
         <v>433669</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>424593</v>
+        <v>424250</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>440601</v>
+        <v>441023</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.935359228118894</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9157827663744263</v>
+        <v>0.9150444016341722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9503102367869354</v>
+        <v>0.9512217071949356</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1236</v>
@@ -8016,19 +8016,19 @@
         <v>718272</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>706521</v>
+        <v>706873</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>728168</v>
+        <v>728908</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9281947923381426</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9130086925708375</v>
+        <v>0.9134639810331592</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9409829169027446</v>
+        <v>0.941938477877119</v>
       </c>
     </row>
     <row r="24">
@@ -8120,19 +8120,19 @@
         <v>89995</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73135</v>
+        <v>73164</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107929</v>
+        <v>108421</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02549567385301782</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02071917958777696</v>
+        <v>0.02072756627278089</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03057654291755827</v>
+        <v>0.0307157390589978</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -8141,19 +8141,19 @@
         <v>95820</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79995</v>
+        <v>79936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113497</v>
+        <v>116705</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02570346357286687</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02145847028966737</v>
+        <v>0.02144272346154356</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03044542360832894</v>
+        <v>0.03130584920016689</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>271</v>
@@ -8162,19 +8162,19 @@
         <v>185815</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>162827</v>
+        <v>163641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210702</v>
+        <v>212925</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02560240437958038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02243502385861763</v>
+        <v>0.02254725650629072</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02903154243972755</v>
+        <v>0.02933774895067725</v>
       </c>
     </row>
     <row r="26">
@@ -8191,19 +8191,19 @@
         <v>3439813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3421879</v>
+        <v>3421387</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3456673</v>
+        <v>3456644</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.974504326146982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9694234570824417</v>
+        <v>0.9692842609410015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.979280820412223</v>
+        <v>0.9792724337272188</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5198</v>
@@ -8212,19 +8212,19 @@
         <v>3632077</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3614400</v>
+        <v>3611192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3647902</v>
+        <v>3647961</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9742965364271331</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9695545763916705</v>
+        <v>0.9686941507998328</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9785415297103326</v>
+        <v>0.9785572765384564</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8454</v>
@@ -8233,19 +8233,19 @@
         <v>7071891</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7047004</v>
+        <v>7044781</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7094879</v>
+        <v>7094065</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9743975956204197</v>
+        <v>0.9743975956204195</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9709684575602727</v>
+        <v>0.9706622510493225</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9775649761413825</v>
+        <v>0.9774527434937093</v>
       </c>
     </row>
     <row r="27">
